--- a/导表工具/Y-野外boss-删除.xlsx
+++ b/导表工具/Y-野外boss-删除.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="8055" tabRatio="801"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="801"/>
   </bookViews>
   <sheets>
     <sheet name="野外boss配置" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>导出类型</t>
   </si>
@@ -232,7 +232,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -299,7 +299,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,7 +322,45 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,15 +372,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,38 +421,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,21 +438,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,43 +449,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -482,31 +494,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,31 +626,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,43 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,67 +662,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,17 +753,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,40 +777,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,17 +807,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,148 +855,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1481,10 +1493,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
@@ -1502,154 +1514,184 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+    </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="15"/>
+      <c r="A6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:11">
+      <c r="A8" s="19" t="str">
+        <f>"1-"&amp;C8&amp;"关"</f>
+        <v>1-10关</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="20">
+        <v>32001</v>
+      </c>
+      <c r="E8" s="21">
+        <v>120</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1440</v>
+      </c>
+      <c r="G8" s="22">
+        <v>120001</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="19" t="str">
-        <f>"1-"&amp;C9&amp;"关"</f>
-        <v>1-10关</v>
+        <f>C8+1&amp;"-"&amp;C9&amp;"关"</f>
+        <v>11-20关</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D9" s="20">
         <v>32001</v>
@@ -1658,7 +1700,7 @@
         <v>120</v>
       </c>
       <c r="F9" s="21">
-        <v>1440</v>
+        <v>4320</v>
       </c>
       <c r="G9" s="22">
         <v>120001</v>
@@ -1672,17 +1714,17 @@
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="19" t="str">
-        <f>C9+1&amp;"-"&amp;C10&amp;"关"</f>
-        <v>11-20关</v>
+        <f t="shared" ref="A10:A28" si="0">C9+1&amp;"-"&amp;C10&amp;"关"</f>
+        <v>21-30关</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D10" s="20">
-        <v>32001</v>
+        <v>32002</v>
       </c>
       <c r="E10" s="21">
         <v>120</v>
@@ -1691,10 +1733,10 @@
         <v>4320</v>
       </c>
       <c r="G10" s="22">
-        <v>120001</v>
+        <v>120002</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="19"/>
@@ -1702,17 +1744,17 @@
     </row>
     <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="19" t="str">
-        <f t="shared" ref="A11:A29" si="0">C10+1&amp;"-"&amp;C11&amp;"关"</f>
-        <v>21-30关</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>31-40关</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
       </c>
       <c r="C11" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D11" s="20">
-        <v>32002</v>
+        <v>32003</v>
       </c>
       <c r="E11" s="21">
         <v>120</v>
@@ -1721,28 +1763,26 @@
         <v>4320</v>
       </c>
       <c r="G11" s="22">
-        <v>120002</v>
+        <v>120003</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="19"/>
+        <v>29</v>
+      </c>
       <c r="K11" s="22"/>
     </row>
     <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>31-40关</v>
+        <v>41-50关</v>
       </c>
       <c r="B12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D12" s="20">
-        <v>32003</v>
+        <v>32004</v>
       </c>
       <c r="E12" s="21">
         <v>120</v>
@@ -1751,26 +1791,26 @@
         <v>4320</v>
       </c>
       <c r="G12" s="22">
-        <v>120003</v>
+        <v>120004</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12" s="22"/>
     </row>
     <row r="13" customHeight="1" spans="1:11">
       <c r="A13" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>41-50关</v>
+        <v>51-60关</v>
       </c>
       <c r="B13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D13" s="20">
-        <v>32004</v>
+        <v>32005</v>
       </c>
       <c r="E13" s="21">
         <v>120</v>
@@ -1779,26 +1819,26 @@
         <v>4320</v>
       </c>
       <c r="G13" s="22">
-        <v>120004</v>
+        <v>120005</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K13" s="22"/>
     </row>
     <row r="14" customHeight="1" spans="1:11">
       <c r="A14" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>51-60关</v>
-      </c>
-      <c r="B14" s="1">
-        <v>6</v>
+        <v>61-80关</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7</v>
       </c>
       <c r="C14" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D14" s="20">
-        <v>32005</v>
+        <v>32006</v>
       </c>
       <c r="E14" s="21">
         <v>120</v>
@@ -1807,26 +1847,26 @@
         <v>4320</v>
       </c>
       <c r="G14" s="22">
-        <v>120005</v>
+        <v>120006</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14" s="22"/>
     </row>
     <row r="15" customHeight="1" spans="1:11">
       <c r="A15" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>61-80关</v>
+        <v>81-100关</v>
       </c>
       <c r="B15" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D15" s="20">
-        <v>32006</v>
+        <v>32007</v>
       </c>
       <c r="E15" s="21">
         <v>120</v>
@@ -1835,26 +1875,26 @@
         <v>4320</v>
       </c>
       <c r="G15" s="22">
-        <v>120006</v>
+        <v>120007</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K15" s="22"/>
     </row>
     <row r="16" customHeight="1" spans="1:11">
       <c r="A16" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>81-100关</v>
+        <v>101-150关</v>
       </c>
       <c r="B16" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D16" s="20">
-        <v>32007</v>
+        <v>32008</v>
       </c>
       <c r="E16" s="21">
         <v>120</v>
@@ -1863,26 +1903,26 @@
         <v>4320</v>
       </c>
       <c r="G16" s="22">
-        <v>120007</v>
+        <v>120008</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K16" s="22"/>
     </row>
     <row r="17" customHeight="1" spans="1:11">
       <c r="A17" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>101-150关</v>
-      </c>
-      <c r="B17" s="2">
-        <v>9</v>
+        <v>151-250关</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10</v>
       </c>
       <c r="C17" s="2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D17" s="20">
-        <v>32008</v>
+        <v>32009</v>
       </c>
       <c r="E17" s="21">
         <v>120</v>
@@ -1891,26 +1931,26 @@
         <v>4320</v>
       </c>
       <c r="G17" s="22">
-        <v>120008</v>
+        <v>120009</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K17" s="22"/>
     </row>
     <row r="18" customHeight="1" spans="1:11">
       <c r="A18" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>151-250关</v>
+        <v>251-350关</v>
       </c>
       <c r="B18" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D18" s="20">
-        <v>32009</v>
+        <v>32010</v>
       </c>
       <c r="E18" s="21">
         <v>120</v>
@@ -1919,26 +1959,26 @@
         <v>4320</v>
       </c>
       <c r="G18" s="22">
-        <v>120009</v>
+        <v>120010</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K18" s="22"/>
     </row>
     <row r="19" customHeight="1" spans="1:11">
       <c r="A19" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>251-350关</v>
+        <v>351-550关</v>
       </c>
       <c r="B19" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="D19" s="20">
-        <v>32010</v>
+        <v>32011</v>
       </c>
       <c r="E19" s="21">
         <v>120</v>
@@ -1947,26 +1987,26 @@
         <v>4320</v>
       </c>
       <c r="G19" s="22">
-        <v>120010</v>
+        <v>120011</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19" s="22"/>
     </row>
     <row r="20" customHeight="1" spans="1:11">
       <c r="A20" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>351-550关</v>
-      </c>
-      <c r="B20" s="1">
-        <v>12</v>
+        <v>551-750关</v>
+      </c>
+      <c r="B20" s="2">
+        <v>13</v>
       </c>
       <c r="C20" s="2">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="D20" s="20">
-        <v>32011</v>
+        <v>32012</v>
       </c>
       <c r="E20" s="21">
         <v>120</v>
@@ -1975,26 +2015,26 @@
         <v>4320</v>
       </c>
       <c r="G20" s="22">
-        <v>120011</v>
+        <v>120012</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K20" s="22"/>
     </row>
     <row r="21" customHeight="1" spans="1:11">
       <c r="A21" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>551-750关</v>
+        <v>751-1050关</v>
       </c>
       <c r="B21" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2">
-        <v>750</v>
+        <v>1050</v>
       </c>
       <c r="D21" s="20">
-        <v>32012</v>
+        <v>32013</v>
       </c>
       <c r="E21" s="21">
         <v>120</v>
@@ -2003,26 +2043,26 @@
         <v>4320</v>
       </c>
       <c r="G21" s="22">
-        <v>120012</v>
+        <v>120013</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K21" s="22"/>
     </row>
     <row r="22" customHeight="1" spans="1:11">
       <c r="A22" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>751-1050关</v>
+        <v>1051-1350关</v>
       </c>
       <c r="B22" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>1050</v>
+        <v>1350</v>
       </c>
       <c r="D22" s="20">
-        <v>32013</v>
+        <v>32014</v>
       </c>
       <c r="E22" s="21">
         <v>120</v>
@@ -2031,26 +2071,26 @@
         <v>4320</v>
       </c>
       <c r="G22" s="22">
-        <v>120013</v>
+        <v>120014</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K22" s="22"/>
     </row>
     <row r="23" customHeight="1" spans="1:11">
       <c r="A23" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>1051-1350关</v>
-      </c>
-      <c r="B23" s="2">
-        <v>15</v>
+        <v>1351-1700关</v>
+      </c>
+      <c r="B23" s="1">
+        <v>16</v>
       </c>
       <c r="C23" s="2">
-        <v>1350</v>
+        <v>1700</v>
       </c>
       <c r="D23" s="20">
-        <v>32014</v>
+        <v>32015</v>
       </c>
       <c r="E23" s="21">
         <v>120</v>
@@ -2059,26 +2099,26 @@
         <v>4320</v>
       </c>
       <c r="G23" s="22">
-        <v>120014</v>
+        <v>120015</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K23" s="22"/>
     </row>
     <row r="24" customHeight="1" spans="1:11">
       <c r="A24" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>1351-1700关</v>
+        <v>1701-2050关</v>
       </c>
       <c r="B24" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>1700</v>
+        <v>2050</v>
       </c>
       <c r="D24" s="20">
-        <v>32015</v>
+        <v>32016</v>
       </c>
       <c r="E24" s="21">
         <v>120</v>
@@ -2087,26 +2127,26 @@
         <v>4320</v>
       </c>
       <c r="G24" s="22">
-        <v>120015</v>
+        <v>120016</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24" s="22"/>
     </row>
     <row r="25" customHeight="1" spans="1:11">
       <c r="A25" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>1701-2050关</v>
+        <v>2051-2450关</v>
       </c>
       <c r="B25" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
-        <v>2050</v>
+        <v>2450</v>
       </c>
       <c r="D25" s="20">
-        <v>32016</v>
+        <v>32017</v>
       </c>
       <c r="E25" s="21">
         <v>120</v>
@@ -2115,26 +2155,26 @@
         <v>4320</v>
       </c>
       <c r="G25" s="22">
-        <v>120016</v>
+        <v>120017</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25" s="22"/>
     </row>
     <row r="26" customHeight="1" spans="1:11">
       <c r="A26" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>2051-2450关</v>
-      </c>
-      <c r="B26" s="1">
-        <v>18</v>
+        <v>2451-2850关</v>
+      </c>
+      <c r="B26" s="2">
+        <v>19</v>
       </c>
       <c r="C26" s="2">
-        <v>2450</v>
+        <v>2850</v>
       </c>
       <c r="D26" s="20">
-        <v>32017</v>
+        <v>32018</v>
       </c>
       <c r="E26" s="21">
         <v>120</v>
@@ -2143,26 +2183,26 @@
         <v>4320</v>
       </c>
       <c r="G26" s="22">
-        <v>120017</v>
+        <v>120018</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K26" s="22"/>
     </row>
     <row r="27" customHeight="1" spans="1:11">
       <c r="A27" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>2451-2850关</v>
+        <v>2851-3250关</v>
       </c>
       <c r="B27" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2">
-        <v>2850</v>
+        <v>3250</v>
       </c>
       <c r="D27" s="20">
-        <v>32018</v>
+        <v>32019</v>
       </c>
       <c r="E27" s="21">
         <v>120</v>
@@ -2171,26 +2211,26 @@
         <v>4320</v>
       </c>
       <c r="G27" s="22">
-        <v>120018</v>
+        <v>120019</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27" s="22"/>
     </row>
-    <row r="28" customHeight="1" spans="1:11">
+    <row r="28" customHeight="1" spans="1:8">
       <c r="A28" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>2851-3250关</v>
+        <v>3251-3650关</v>
       </c>
       <c r="B28" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2">
-        <v>3250</v>
+        <v>3650</v>
       </c>
       <c r="D28" s="20">
-        <v>32019</v>
+        <v>32020</v>
       </c>
       <c r="E28" s="21">
         <v>120</v>
@@ -2199,37 +2239,9 @@
         <v>4320</v>
       </c>
       <c r="G28" s="22">
-        <v>120019</v>
+        <v>120020</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="22"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:8">
-      <c r="A29" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>3251-3650关</v>
-      </c>
-      <c r="B29" s="2">
-        <v>21</v>
-      </c>
-      <c r="C29" s="2">
-        <v>3650</v>
-      </c>
-      <c r="D29" s="20">
-        <v>32020</v>
-      </c>
-      <c r="E29" s="21">
-        <v>120</v>
-      </c>
-      <c r="F29" s="21">
-        <v>4320</v>
-      </c>
-      <c r="G29" s="22">
-        <v>120020</v>
-      </c>
-      <c r="H29" s="20" t="s">
         <v>46</v>
       </c>
     </row>
